--- a/Database system/Final Testing Exam/DATA.xlsx
+++ b/Database system/Final Testing Exam/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Passport IT\Github\VTI\Database system\Final Testing Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7A955-3C5F-4A8D-ADDF-C0595C719CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA8E99E7-F9A0-4C03-B32C-178DB0A721FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Orders" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="120" codePage="1252"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1092,7 +1093,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1576,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3490,11 +3491,11 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3524,11 +3525,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B38" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C38" ca="1" si="1">RANDBETWEEN(1,20)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3558,11 +3559,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3592,11 +3593,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3626,11 +3627,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3660,11 +3661,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3694,11 +3695,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3728,7 +3729,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
@@ -3762,7 +3763,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
@@ -3796,11 +3797,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3830,11 +3831,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3864,11 +3865,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3898,11 +3899,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3932,11 +3933,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3966,11 +3967,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -4000,11 +4001,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -4034,11 +4035,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4068,11 +4069,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4102,11 +4103,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4136,11 +4137,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4170,11 +4171,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4204,11 +4205,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4238,11 +4239,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -4272,11 +4273,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4306,11 +4307,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4340,11 +4341,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4374,11 +4375,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4408,7 +4409,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
@@ -4442,11 +4443,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4476,11 +4477,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4510,11 +4511,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -4544,11 +4545,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4578,7 +4579,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
@@ -4612,11 +4613,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -4646,11 +4647,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -4680,11 +4681,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -4714,11 +4715,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <v>1</v>
